--- a/with logs for unschedule with saturday sunday/excel_schedules/room_218_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_218_genetic_schedule.xlsx
@@ -665,7 +665,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>FM 423 - Financial Modeling
 3C
@@ -679,7 +679,7 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
